--- a/tumlknexpectimax/excel_data/input_data_business_munich_bsg.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_business_munich_bsg.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="108">
   <si>
     <t>Technology Name</t>
   </si>
@@ -523,6 +523,9 @@
   </si>
   <si>
     <t>Approx OPEX per year</t>
+  </si>
+  <si>
+    <t>384090.367674523+20*5000</t>
   </si>
 </sst>
 </file>
@@ -782,6 +785,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -860,7 +864,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>220258.5472510673</c:v>
+                  <c:v>122492.30468757232</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>220258.5472510673</c:v>
@@ -875,7 +879,7 @@
                   <c:v>220258.5472510673</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>220258.5472510673</c:v>
+                  <c:v>122492.30468757232</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>220258.5472510673</c:v>
@@ -884,7 +888,7 @@
                   <c:v>136195.87571102803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>180489.8749974439</c:v>
+                  <c:v>81959.434330663411</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>181766.91113571086</c:v>
@@ -1006,13 +1010,13 @@
                   <c:v>117354.15161378775</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>241088.66761378772</c:v>
+                  <c:v>99287.142993292597</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>121030.53463843174</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>117354.15161378775</c:v>
+                  <c:v>91410.786993292611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1101,7 +1105,7 @@
                   <c:v>22950</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22950</c:v>
+                  <c:v>160450</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>93800</c:v>
@@ -1217,7 +1221,7 @@
                   <c:v>133630</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150884</c:v>
+                  <c:v>210910</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>215594</c:v>
@@ -1238,7 +1242,7 @@
                   <c:v>135438.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>150438.20000000001</c:v>
+                  <c:v>90438.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>245231.2</c:v>
@@ -1265,11 +1269,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="43510272"/>
-        <c:axId val="91493440"/>
+        <c:axId val="83464192"/>
+        <c:axId val="171280640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43510272"/>
+        <c:axId val="83464192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,13 +1295,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91493440"/>
+        <c:crossAx val="171280640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1305,7 +1310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91493440"/>
+        <c:axId val="171280640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,19 +1333,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43510272"/>
+        <c:crossAx val="83464192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1467,7 +1474,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>36062.342937580564</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19283.042118970367</c:v>
@@ -1479,7 +1486,7 @@
                   <c:v>44248.4220525376</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10540.776519765759</c:v>
+                  <c:v>19212.762708578561</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11938.918689039821</c:v>
@@ -1526,11 +1533,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="43730432"/>
-        <c:axId val="43982848"/>
+        <c:axId val="83465728"/>
+        <c:axId val="171282944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43730432"/>
+        <c:axId val="83465728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1540,7 +1547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43982848"/>
+        <c:crossAx val="171282944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1548,7 +1555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43982848"/>
+        <c:axId val="171282944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1578,7 +1585,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43730432"/>
+        <c:crossAx val="83465728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1907,11 +1914,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="44107264"/>
-        <c:axId val="43984000"/>
+        <c:axId val="83740160"/>
+        <c:axId val="171284672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44107264"/>
+        <c:axId val="83740160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,7 +1938,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43984000"/>
+        <c:crossAx val="171284672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1939,7 +1946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43984000"/>
+        <c:axId val="171284672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1978,7 +1985,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44107264"/>
+        <c:crossAx val="83740160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2055,7 +2062,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2096,7 +2103,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2137,7 +2144,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,7 +2455,7 @@
   <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2545,7 +2552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
@@ -2581,13 +2588,13 @@
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
       <c r="W2" s="13">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="X2" s="13">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
@@ -2646,7 +2653,7 @@
         <v>685372.28279667499</v>
       </c>
       <c r="S3" s="11">
-        <v>220258.5472510673</v>
+        <v>122492.30468757232</v>
       </c>
       <c r="T3" s="11">
         <v>181054.59289743542</v>
@@ -2663,10 +2670,10 @@
       </c>
       <c r="X3" s="12">
         <f>S3+T3+U3+V3</f>
-        <v>783086.74014850263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>685320.49758500769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
@@ -2744,7 +2751,7 @@
         <v>488901.15606202511</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
@@ -2818,7 +2825,7 @@
         <v>433198.37939566193</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
@@ -2873,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="7">
-        <v>658286.15266324603</v>
+        <v>758286.15266324603</v>
       </c>
       <c r="S6" s="11">
         <v>136195.87571102803</v>
@@ -2882,21 +2889,21 @@
         <v>140422.50368463391</v>
       </c>
       <c r="U6" s="11">
-        <v>22950</v>
+        <v>160450</v>
       </c>
       <c r="V6" s="11">
-        <v>150884</v>
+        <v>210910</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="0"/>
-        <v>173834</v>
+        <v>371360</v>
       </c>
       <c r="X6" s="12">
         <f t="shared" si="1"/>
-        <v>450452.37939566193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>647978.37939566188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -2950,8 +2957,8 @@
       <c r="Q7" s="7">
         <v>85582.633114971599</v>
       </c>
-      <c r="R7" s="7">
-        <v>384090.36767452297</v>
+      <c r="R7" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="S7" s="11">
         <v>220258.5472510673</v>
@@ -2974,7 +2981,7 @@
         <v>652800.75606202509</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -3030,7 +3037,7 @@
         <v>685372.28279667499</v>
       </c>
       <c r="S8" s="11">
-        <v>220258.5472510673</v>
+        <v>122492.30468757232</v>
       </c>
       <c r="T8" s="11">
         <v>181054.59289743542</v>
@@ -3047,10 +3054,10 @@
       </c>
       <c r="X8" s="12">
         <f t="shared" si="1"/>
-        <v>882409.14014850277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>784642.89758500771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -3126,7 +3133,7 @@
         <v>501952.35606202506</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
@@ -3201,7 +3208,7 @@
         <v>449448.37939566193</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -3258,7 +3265,7 @@
         <v>387592.626526276</v>
       </c>
       <c r="S11" s="11">
-        <v>180489.8749974439</v>
+        <v>81959.434330663411</v>
       </c>
       <c r="T11" s="11">
         <v>121030.53463843174</v>
@@ -3275,10 +3282,10 @@
       </c>
       <c r="X11" s="12">
         <f t="shared" si="1"/>
-        <v>542001.60963587556</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>443471.16896909516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -3354,7 +3361,7 @@
         <v>458559.26274949865</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
@@ -3407,31 +3414,30 @@
         <v>233483.63773783101</v>
       </c>
       <c r="R13" s="7">
-        <f>$Q$12+20*$B$13</f>
-        <v>274463.63773783098</v>
+        <v>1012244.723172249</v>
       </c>
       <c r="S13" s="11">
         <v>181766.91113571086</v>
       </c>
       <c r="T13" s="11">
-        <v>241088.66761378772</v>
+        <v>99287.142993292597</v>
       </c>
       <c r="U13" s="11">
         <v>48000</v>
       </c>
       <c r="V13" s="11">
-        <v>150438.20000000001</v>
+        <v>90438.2</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="0"/>
-        <v>198438.2</v>
+        <v>138438.20000000001</v>
       </c>
       <c r="X13" s="12">
         <f t="shared" si="1"/>
-        <v>621293.77874949854</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>419492.25412900344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
@@ -3507,7 +3513,7 @@
         <v>593031.60963587556</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
@@ -3560,14 +3566,13 @@
         <v>233483.63773783101</v>
       </c>
       <c r="R15" s="7">
-        <f>$Q$12</f>
-        <v>233483.63773783101</v>
+        <v>368464.72317224898</v>
       </c>
       <c r="S15" s="11">
         <v>181766.91113571086</v>
       </c>
       <c r="T15" s="11">
-        <v>117354.15161378775</v>
+        <v>91410.786993292611</v>
       </c>
       <c r="U15" s="11">
         <v>48000</v>
@@ -3581,7 +3586,7 @@
       </c>
       <c r="X15" s="12">
         <f t="shared" ref="X15" si="2">SUM(S15:V15)</f>
-        <v>482559.26274949865</v>
+        <v>456615.89812900347</v>
       </c>
     </row>
     <row r="27" spans="17:17" ht="14.45" x14ac:dyDescent="0.3">
@@ -3590,7 +3595,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R42" s="5" t="s">
         <v>52</v>
       </c>
@@ -3604,12 +3609,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="18:25" x14ac:dyDescent="0.25">
       <c r="S43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R44" t="s">
         <v>55</v>
       </c>
@@ -3629,7 +3634,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="18:25" x14ac:dyDescent="0.25">
       <c r="S45" t="s">
         <v>57</v>
       </c>
@@ -3640,7 +3645,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R46" t="s">
         <v>60</v>
       </c>
@@ -3673,7 +3678,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3691,16 +3696,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="12">
-        <f>AVERAGE(B3:B15)</f>
-        <v>36062.342937580564</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
@@ -3708,7 +3712,7 @@
         <v>19283.042118970367</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
@@ -3716,7 +3720,7 @@
         <v>43709.823692218881</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
@@ -3724,15 +3728,15 @@
         <v>44248.4220525376</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="12">
-        <v>10540.776519765759</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19212.762708578561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -3740,7 +3744,7 @@
         <v>11938.918689039821</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -3748,7 +3752,7 @@
         <v>50983.71612182937</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -3756,7 +3760,7 @@
         <v>47726.863400003029</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
@@ -3764,7 +3768,7 @@
         <v>48220.289169209609</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -3772,7 +3776,7 @@
         <v>37682.867713520049</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -3780,7 +3784,7 @@
         <v>44827.8721002112</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
@@ -3788,7 +3792,7 @@
         <v>12139.814930199653</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
@@ -3796,7 +3800,7 @@
         <v>47419.574760442287</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
@@ -7607,7 +7611,7 @@
       </c>
       <c r="C2">
         <f>CAPEX!$X3</f>
-        <v>783086.74014850263</v>
+        <v>685320.49758500769</v>
       </c>
       <c r="D2">
         <f>CAPEX!$X4</f>
@@ -7619,7 +7623,7 @@
       </c>
       <c r="F2">
         <f>CAPEX!$X6</f>
-        <v>450452.37939566193</v>
+        <v>647978.37939566188</v>
       </c>
       <c r="G2">
         <f>CAPEX!$X7</f>
@@ -7627,7 +7631,7 @@
       </c>
       <c r="H2">
         <f>CAPEX!$X8</f>
-        <v>882409.14014850277</v>
+        <v>784642.89758500771</v>
       </c>
       <c r="I2">
         <f>CAPEX!$X9</f>
@@ -7639,7 +7643,7 @@
       </c>
       <c r="K2">
         <f>CAPEX!$X11</f>
-        <v>542001.60963587556</v>
+        <v>443471.16896909516</v>
       </c>
       <c r="L2">
         <f>CAPEX!$X12</f>
@@ -7647,7 +7651,7 @@
       </c>
       <c r="M2">
         <f>CAPEX!$X13</f>
-        <v>621293.77874949854</v>
+        <v>419492.25412900344</v>
       </c>
       <c r="N2">
         <f>CAPEX!$X14</f>
@@ -7655,7 +7659,7 @@
       </c>
       <c r="O2">
         <f>CAPEX!$X15</f>
-        <v>482559.26274949865</v>
+        <v>456615.89812900347</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -7684,7 +7688,7 @@
       </c>
       <c r="H3">
         <f>H2-C2</f>
-        <v>99322.40000000014</v>
+        <v>99322.400000000023</v>
       </c>
       <c r="I3">
         <f>I2-D2+D3</f>
@@ -7776,7 +7780,7 @@
       </c>
       <c r="F5">
         <f>F2-E2</f>
-        <v>17254</v>
+        <v>214779.99999999994</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -8016,7 +8020,7 @@
       </c>
       <c r="F10">
         <f>F2-J2</f>
-        <v>1004</v>
+        <v>198529.99999999994</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -8082,19 +8086,19 @@
       </c>
       <c r="L11">
         <f>IF(L2-K2&gt;0,L2-K2,0)</f>
-        <v>0</v>
+        <v>15088.093780403491</v>
       </c>
       <c r="M11">
         <f>M2-K2</f>
-        <v>79292.169113622978</v>
+        <v>-23978.914840091718</v>
       </c>
       <c r="N11">
         <f>N2-K2</f>
-        <v>51030</v>
+        <v>149560.4406667804</v>
       </c>
       <c r="O11">
         <f>O2-L2+L11</f>
-        <v>24000</v>
+        <v>13144.729159908311</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -8136,14 +8140,14 @@
       </c>
       <c r="M12">
         <f>M2-L2</f>
-        <v>162734.51599999989</v>
+        <v>-39067.008620495209</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
         <f>O2-L2</f>
-        <v>24000</v>
+        <v>-1943.3646204951801</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -8232,7 +8236,7 @@
       </c>
       <c r="M14">
         <f>M2-N2</f>
-        <v>28262.169113622978</v>
+        <v>-173539.35550687212</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -8281,7 +8285,7 @@
       </c>
       <c r="M15">
         <f>M2-O2</f>
-        <v>138734.51599999989</v>
+        <v>-37123.644000000029</v>
       </c>
       <c r="N15">
         <v>0</v>
